--- a/Datasets/Raw_data/Immigration_emigration_net_migration_rates_locality.xlsx
+++ b/Datasets/Raw_data/Immigration_emigration_net_migration_rates_locality.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Tỷ suất nhập cư</t>
+          <t>Tỷ suất xuất cư</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
